--- a/UniuniHost/Daily_Report_Template.xlsx
+++ b/UniuniHost/Daily_Report_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_WorkSpace\UniUni\AutoDailyReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_WorkSpace\UniUni\HOST\UniuniHost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2DB61-3134-4454-8CBB-C99ADC3320A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3D0F4-7155-47E0-832B-27DBB84919E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37305" yWindow="630" windowWidth="21630" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Form for report" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -445,12 +445,6 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -672,11 +666,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,11 +739,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -777,9 +766,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -999,7 +987,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D22" sqref="D22:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1007,21 +995,21 @@
     <row r="1" spans="4:14" ht="13.2"/>
     <row r="2" spans="4:14" ht="13.2"/>
     <row r="3" spans="4:14" ht="13.2">
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="H3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="L3" s="47" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="4:14" ht="13.2">
       <c r="D4" s="1" t="s">
@@ -1057,424 +1045,274 @@
         <v>195</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="43">
-        <f>E5/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="H5" s="41">
         <v>195</v>
       </c>
       <c r="I5" s="42"/>
-      <c r="J5" s="43">
-        <f>I5/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="5"/>
       <c r="L5" s="41">
         <v>195</v>
       </c>
       <c r="M5" s="42"/>
-      <c r="N5" s="43">
-        <f>M5/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="4:14" ht="13.2">
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>199</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45">
-        <f>E6/E19</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
+      <c r="E6" s="43"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="43">
         <v>199</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45">
-        <f>I6/I19</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="44">
+      <c r="I6" s="43"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="43">
         <v>199</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45">
-        <f>M6/M19</f>
-        <v>0</v>
-      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="4:14" ht="13.2">
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>200</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45">
-        <f>E7/E19</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
+      <c r="E7" s="43"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="43">
         <v>200</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45">
-        <f>I7/I19</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="44">
+      <c r="I7" s="43"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="43">
         <v>200</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45">
-        <f>M7/M19</f>
-        <v>0</v>
-      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="4:14" ht="13.2">
       <c r="D8" s="3">
         <v>202</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <f>E8/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="H8" s="3">
         <v>202</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="5">
-        <f>I8/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="L8" s="3">
         <v>202</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="5">
-        <f>M8/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="4:14" ht="13.2">
       <c r="D9" s="3">
         <v>203</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5">
-        <f>E9/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="H9" s="3">
         <v>203</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="5">
-        <f>I9/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="L9" s="3">
         <v>203</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="5">
-        <f>M9/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="4:14" ht="13.2">
       <c r="D10" s="3">
         <v>207</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="5">
-        <f>E10/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="H10" s="3">
         <v>207</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="5">
-        <f>I10/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J10" s="5"/>
       <c r="L10" s="3">
         <v>207</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="5">
-        <f>M10/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="4:14" ht="13.2">
       <c r="D11" s="3">
         <v>211</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <f>E11/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="H11" s="3">
         <v>211</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="5">
-        <f>I11/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="L11" s="3">
         <v>211</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="5">
-        <f>M11/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="4:14" ht="13.2">
       <c r="D12" s="3">
         <v>213</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="5">
-        <f>E12/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="H12" s="3">
         <v>213</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="5">
-        <f>I12/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="L12" s="3">
         <v>213</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="5">
-        <f>M12/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="4:14" ht="13.2">
       <c r="D13" s="3">
         <v>216</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <f>E13/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="H13" s="3">
         <v>216</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="5">
-        <f>I13/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="L13" s="3">
         <v>216</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="5">
-        <f>M13/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="4:14" ht="13.2">
       <c r="D14" s="3">
         <v>218</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="5">
-        <f>E14/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="H14" s="3">
         <v>218</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="5">
-        <f>I14/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J14" s="5"/>
       <c r="L14" s="3">
         <v>218</v>
       </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="5">
-        <f>M14/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="4:14" ht="13.2">
       <c r="D15" s="3">
         <v>220</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="5">
-        <f>E15/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="H15" s="3">
         <v>220</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="5">
-        <f>I15/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="L15" s="3">
         <v>220</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="5">
-        <f>M15/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="4:14" ht="15.75" customHeight="1">
-      <c r="D16" s="46">
+      <c r="D16" s="44">
         <v>228</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <f>E16/E19</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="46">
+      <c r="F16" s="5"/>
+      <c r="H16" s="44">
         <v>228</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="5">
-        <f>I16/I19</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="46">
+      <c r="J16" s="5"/>
+      <c r="L16" s="44">
         <v>228</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="5">
-        <f>M16/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="4:14" ht="15.75" customHeight="1">
       <c r="D17" s="3">
         <v>230</v>
       </c>
-      <c r="E17" s="6">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5">
-        <f>E17/E19</f>
-        <v>1</v>
-      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="H17" s="3">
         <v>230</v>
       </c>
-      <c r="I17" s="6">
-        <v>4</v>
-      </c>
-      <c r="J17" s="5">
-        <f>I17/I19</f>
-        <v>1</v>
-      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="L17" s="3">
         <v>230</v>
       </c>
-      <c r="M17" s="6">
-        <v>4</v>
-      </c>
-      <c r="N17" s="5">
-        <f>M17/M19</f>
-        <v>1</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="4:14" ht="13.2">
       <c r="D18" s="3">
         <v>231</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="5">
-        <f>E18/E19</f>
-        <v>0</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="H18" s="3">
         <v>231</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="5">
-        <f>I18/I19</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="L18" s="3">
         <v>231</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="5">
-        <f>M18/M19</f>
-        <v>0</v>
-      </c>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="4:14" ht="13.2">
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6">
-        <f>SUM(E5:E18)</f>
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <f>SUM(F5:F18)</f>
-        <v>1</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="6">
-        <f>SUM(I5:I18)</f>
-        <v>4</v>
-      </c>
-      <c r="J19" s="5">
-        <f>SUM(J5:J18)</f>
-        <v>1</v>
-      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="L19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="6">
-        <f>SUM(M5:M18)</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="5">
-        <f>SUM(N5:N18)</f>
-        <v>1</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="4:14" ht="13.2"/>
     <row r="21" spans="4:14" ht="13.2"/>
     <row r="22" spans="4:14" ht="13.2">
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="H22" s="47" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="H22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="L22" s="47" t="s">
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="L22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="49"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="4:14" ht="13.2">
       <c r="D23" s="1" t="s">
@@ -1510,405 +1348,255 @@
         <v>195</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="43">
-        <f>E24/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="H24" s="41">
         <v>195</v>
       </c>
       <c r="I24" s="42"/>
-      <c r="J24" s="43">
-        <f>I24/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="L24" s="41">
         <v>195</v>
       </c>
       <c r="M24" s="42"/>
-      <c r="N24" s="43">
-        <f>M24/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="4:14" ht="13.2">
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <v>199</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45">
-        <f>E25/E38</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
+      <c r="E25" s="43"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="43">
         <v>199</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45">
-        <f>I25/I38</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="44">
+      <c r="I25" s="43"/>
+      <c r="J25" s="5"/>
+      <c r="L25" s="43">
         <v>199</v>
       </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45">
-        <f>M25/M38</f>
-        <v>0</v>
-      </c>
+      <c r="M25" s="43"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="4:14" ht="13.2">
-      <c r="D26" s="44">
+      <c r="D26" s="43">
         <v>200</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45">
-        <f>E26/E38</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="44">
+      <c r="E26" s="43"/>
+      <c r="F26" s="5"/>
+      <c r="H26" s="43">
         <v>200</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45">
-        <f>I26/I38</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="44">
+      <c r="I26" s="43"/>
+      <c r="J26" s="5"/>
+      <c r="L26" s="43">
         <v>200</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45">
-        <f>M26/M38</f>
-        <v>0</v>
-      </c>
+      <c r="M26" s="43"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="4:14" ht="13.2">
       <c r="D27" s="3">
         <v>202</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="5">
-        <f>E27/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="H27" s="3">
         <v>202</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="5">
-        <f>I27/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="5"/>
       <c r="L27" s="3">
         <v>202</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="5">
-        <f>M27/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="4:14" ht="13.2">
       <c r="D28" s="3">
         <v>203</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="5">
-        <f>E28/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="H28" s="3">
         <v>203</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="5">
-        <f>I28/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="5"/>
       <c r="L28" s="3">
         <v>203</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="5">
-        <f>M28/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="4:14" ht="13.2">
       <c r="D29" s="3">
         <v>207</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="5">
-        <f>E29/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="5"/>
       <c r="H29" s="3">
         <v>207</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="5">
-        <f>I29/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="5"/>
       <c r="L29" s="3">
         <v>207</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="5">
-        <f>M29/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="4:14" ht="13.2">
       <c r="D30" s="3">
         <v>211</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="5">
-        <f>E30/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="5"/>
       <c r="H30" s="3">
         <v>211</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="5">
-        <f>I30/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="L30" s="3">
         <v>211</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="5">
-        <f>M30/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="4:14" ht="13.2">
       <c r="D31" s="3">
         <v>213</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="5">
-        <f>E31/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="5"/>
       <c r="H31" s="3">
         <v>213</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="5">
-        <f>I31/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="5"/>
       <c r="L31" s="3">
         <v>213</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="5">
-        <f>M31/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="4:14" ht="13.2">
       <c r="D32" s="3">
         <v>216</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="5">
-        <f>E32/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="H32" s="3">
         <v>216</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="5">
-        <f>I32/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="5"/>
       <c r="L32" s="3">
         <v>216</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="5">
-        <f>M32/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="4:14" ht="15.75" customHeight="1">
       <c r="D33" s="3">
         <v>218</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="5">
-        <f>E33/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="H33" s="3">
         <v>218</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="5">
-        <f>I33/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="5"/>
       <c r="L33" s="3">
         <v>218</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="5">
-        <f>M33/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="4:14" ht="15.75" customHeight="1">
       <c r="D34" s="3">
         <v>220</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="5">
-        <f>E34/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="5"/>
       <c r="H34" s="3">
         <v>220</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="5">
-        <f>I34/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="5"/>
       <c r="L34" s="3">
         <v>220</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="5">
-        <f>M34/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="4:14" ht="15.75" customHeight="1">
-      <c r="D35" s="46">
+      <c r="D35" s="44">
         <v>228</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="5">
-        <f>E35/E38</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="46">
+      <c r="F35" s="5"/>
+      <c r="H35" s="44">
         <v>228</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="5">
-        <f>I35/I38</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="46">
+      <c r="J35" s="5"/>
+      <c r="L35" s="44">
         <v>228</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="5">
-        <f>M35/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="4:14" ht="15.75" customHeight="1">
       <c r="D36" s="3">
         <v>230</v>
       </c>
-      <c r="E36" s="6">
-        <v>4</v>
-      </c>
-      <c r="F36" s="5">
-        <f>E36/E38</f>
-        <v>1</v>
-      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
       <c r="H36" s="3">
         <v>230</v>
       </c>
-      <c r="I36" s="6">
-        <v>4</v>
-      </c>
-      <c r="J36" s="5">
-        <f>I36/I38</f>
-        <v>1</v>
-      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5"/>
       <c r="L36" s="3">
         <v>230</v>
       </c>
-      <c r="M36" s="6">
-        <v>4</v>
-      </c>
-      <c r="N36" s="5">
-        <f>M36/M38</f>
-        <v>1</v>
-      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="4:14" ht="15.75" customHeight="1">
       <c r="D37" s="3">
         <v>231</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="5">
-        <f>E37/E38</f>
-        <v>0</v>
-      </c>
+      <c r="F37" s="5"/>
       <c r="H37" s="3">
         <v>231</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="5">
-        <f>I37/I38</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="5"/>
       <c r="L37" s="3">
         <v>231</v>
       </c>
       <c r="M37" s="4"/>
-      <c r="N37" s="5">
-        <f>M37/M38</f>
-        <v>0</v>
-      </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="4:14" ht="13.2">
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="6">
-        <f>SUM(E24:E37)</f>
-        <v>4</v>
-      </c>
-      <c r="F38" s="5">
-        <f>SUM(F24:F37)</f>
-        <v>1</v>
-      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="6">
-        <f>SUM(I24:I37)</f>
-        <v>4</v>
-      </c>
-      <c r="J38" s="5">
-        <f>SUM(J24:J37)</f>
-        <v>1</v>
-      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
       <c r="L38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="6">
-        <f>SUM(M24:M37)</f>
-        <v>4</v>
-      </c>
-      <c r="N38" s="5">
-        <f>SUM(N24:N37)</f>
-        <v>1</v>
-      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="4:14" ht="13.2"/>
     <row r="40" spans="4:14" ht="13.2"/>
@@ -3755,10 +3443,10 @@
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:7">
@@ -3973,10 +3661,10 @@
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:7">
@@ -4188,11 +3876,11 @@
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="50">
+      <c r="A1" s="48">
         <v>45213</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
@@ -4365,10 +4053,10 @@
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:6">
@@ -4584,10 +4272,10 @@
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:6">
@@ -4992,10 +4680,10 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7"/>
@@ -5832,16 +5520,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -6063,18 +5751,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -6309,20 +5997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="13.8">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
@@ -6602,8 +6290,8 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:6">
@@ -6978,21 +6666,21 @@
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="50">
+      <c r="A2" s="48">
         <v>45215</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="E2" s="50">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="E2" s="48">
         <v>45212</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="I2" s="50">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="I2" s="48">
         <v>45209</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
@@ -7296,21 +6984,21 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <v>45216</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="E17" s="50">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="E17" s="48">
         <v>45213</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="I17" s="50">
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="I17" s="48">
         <v>45210</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
@@ -7649,16 +7337,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8"/>
-      <c r="E32" s="50">
+      <c r="E32" s="48">
         <v>45214</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="I32" s="50">
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="I32" s="48">
         <v>45211</v>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="15"/>
